--- a/similarities/split_global/harmonic_similarity_timestamps_204.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_204.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,322 +484,344 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['E', 'A', 'E', 'B', 'E', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['D', 'G', 'D', 'A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:44.580000', '0:03:52.160000'), ('0:00:56.920000', '0:01:03.560000')]</t>
+          <t>('0:01:11.192403', '0:01:27.736621')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:04.063000', '0:00:12.648000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=224.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=71.192403</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:01:30.720385', '0:01:50.178707')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=90.720385</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B', 'Gb']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:29.160000', '0:00:31.680000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:15.552131', '0:00:23.667505')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:19.180000')]</t>
+          <t>('0:00:23.080000', '0:00:30.920000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=23.08</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -807,383 +829,393 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44.860000', '0:00:47.360000')]</t>
+          <t>('0:00:11.070127', '0:00:14.541510')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:04.063000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=44.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D', 'A', 'A:7/b7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+          <t>('0:01:07.300000', '0:01:12.260000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:12.580000')]</t>
+          <t>('0:01:03.382018', '0:01:11.149092')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:15.260000', '0:00:37.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:06.600000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:02.420000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=6.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:maj', 'E:min', 'A:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G#', 'C#:min', 'F#:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:38.795000', '0:00:44.251000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:02.804376', '0:00:06.298979')]</t>
+          <t>('0:00:32.080000', '0:00:41.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=38.795']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=2.804376']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
